--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll1-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Notch1</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H2">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I2">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J2">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N2">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O2">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P2">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q2">
-        <v>1106.811913082593</v>
+        <v>1123.514798109408</v>
       </c>
       <c r="R2">
-        <v>1106.811913082593</v>
+        <v>4494.059192437632</v>
       </c>
       <c r="S2">
-        <v>0.2030112383330822</v>
+        <v>0.1916059992884763</v>
       </c>
       <c r="T2">
-        <v>0.2030112383330822</v>
+        <v>0.1388050248027804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H3">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I3">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J3">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N3">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P3">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q3">
-        <v>66.13531434798595</v>
+        <v>70.670677399352</v>
       </c>
       <c r="R3">
-        <v>66.13531434798595</v>
+        <v>424.0240643961121</v>
       </c>
       <c r="S3">
-        <v>0.01213052724192207</v>
+        <v>0.01205228964165166</v>
       </c>
       <c r="T3">
-        <v>0.01213052724192207</v>
+        <v>0.01309654996857162</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H4">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I4">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J4">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N4">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O4">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P4">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q4">
-        <v>205.5155941203093</v>
+        <v>210.21729075626</v>
       </c>
       <c r="R4">
-        <v>205.5155941203093</v>
+        <v>1261.30374453756</v>
       </c>
       <c r="S4">
-        <v>0.03769563262372447</v>
+        <v>0.03585079086706164</v>
       </c>
       <c r="T4">
-        <v>0.03769563262372447</v>
+        <v>0.03895705197630316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H5">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I5">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J5">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N5">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O5">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P5">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q5">
-        <v>200.6260861966616</v>
+        <v>204.130191732148</v>
       </c>
       <c r="R5">
-        <v>200.6260861966616</v>
+        <v>1224.781150392888</v>
       </c>
       <c r="S5">
-        <v>0.03679879997611177</v>
+        <v>0.03481268732517193</v>
       </c>
       <c r="T5">
-        <v>0.03679879997611177</v>
+        <v>0.03782900284098162</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H6">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I6">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J6">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N6">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O6">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P6">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q6">
-        <v>702.9902213559869</v>
+        <v>750.4692946784742</v>
       </c>
       <c r="R6">
-        <v>702.9902213559869</v>
+        <v>4502.815768070845</v>
       </c>
       <c r="S6">
-        <v>0.1289423376154759</v>
+        <v>0.1279862262465584</v>
       </c>
       <c r="T6">
-        <v>0.1289423376154759</v>
+        <v>0.1390754833450268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.5070326021356</v>
+        <v>16.750533</v>
       </c>
       <c r="H7">
-        <v>16.5070326021356</v>
+        <v>33.501066</v>
       </c>
       <c r="I7">
-        <v>0.5054070331754271</v>
+        <v>0.4930480571846119</v>
       </c>
       <c r="J7">
-        <v>0.5054070331754271</v>
+        <v>0.4334978856198783</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N7">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O7">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P7">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q7">
-        <v>473.3866759791139</v>
+        <v>532.0700022802125</v>
       </c>
       <c r="R7">
-        <v>473.3866759791139</v>
+        <v>2128.28000912085</v>
       </c>
       <c r="S7">
-        <v>0.08682849738511081</v>
+        <v>0.090740063815692</v>
       </c>
       <c r="T7">
-        <v>0.08682849738511081</v>
+        <v>0.06573477268621469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,49 +912,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H8">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I8">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J8">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N8">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O8">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P8">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q8">
-        <v>586.8090269833751</v>
+        <v>13.143385751872</v>
       </c>
       <c r="R8">
-        <v>586.8090269833751</v>
+        <v>78.86031451123199</v>
       </c>
       <c r="S8">
-        <v>0.1076324042276877</v>
+        <v>0.002241493895104103</v>
       </c>
       <c r="T8">
-        <v>0.1076324042276877</v>
+        <v>0.002435706216354766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H9">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I9">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J9">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N9">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O9">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P9">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q9">
-        <v>35.06359030207264</v>
+        <v>0.8267376415235556</v>
       </c>
       <c r="R9">
-        <v>35.06359030207264</v>
+        <v>7.440638773712001</v>
       </c>
       <c r="S9">
-        <v>0.006431357309664619</v>
+        <v>0.0001409931513319446</v>
       </c>
       <c r="T9">
-        <v>0.006431357309664619</v>
+        <v>0.0002298140734931935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H10">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I10">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J10">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N10">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O10">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P10">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q10">
-        <v>108.960162417993</v>
+        <v>2.459217225062222</v>
       </c>
       <c r="R10">
-        <v>108.960162417993</v>
+        <v>22.13295502556</v>
       </c>
       <c r="S10">
-        <v>0.01998545302954275</v>
+        <v>0.000419398814032884</v>
       </c>
       <c r="T10">
-        <v>0.01998545302954275</v>
+        <v>0.0006836058983048906</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H11">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I11">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J11">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N11">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O11">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P11">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q11">
-        <v>106.3678453737067</v>
+        <v>2.388007579476444</v>
       </c>
       <c r="R11">
-        <v>106.3678453737067</v>
+        <v>21.492068215288</v>
       </c>
       <c r="S11">
-        <v>0.01950997071218423</v>
+        <v>0.0004072546079001291</v>
       </c>
       <c r="T11">
-        <v>0.01950997071218423</v>
+        <v>0.0006638112525767538</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H12">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I12">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J12">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N12">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O12">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P12">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q12">
-        <v>372.7110296670169</v>
+        <v>8.779330233560447</v>
       </c>
       <c r="R12">
-        <v>372.7110296670169</v>
+        <v>79.01397210204401</v>
       </c>
       <c r="S12">
-        <v>0.06836258878201371</v>
+        <v>0.001497240931152445</v>
       </c>
       <c r="T12">
-        <v>0.06836258878201371</v>
+        <v>0.002440452136421793</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>8.751690892686669</v>
+        <v>0.1959553333333333</v>
       </c>
       <c r="H13">
-        <v>8.751690892686669</v>
+        <v>0.587866</v>
       </c>
       <c r="I13">
-        <v>0.2679564665528635</v>
+        <v>0.005767899827125681</v>
       </c>
       <c r="J13">
-        <v>0.2679564665528635</v>
+        <v>0.007606882360931899</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>28.6778785375313</v>
+        <v>31.7643625</v>
       </c>
       <c r="N13">
-        <v>28.6778785375313</v>
+        <v>63.528725</v>
       </c>
       <c r="O13">
-        <v>0.1717991473913118</v>
+        <v>0.1840389846252172</v>
       </c>
       <c r="P13">
-        <v>0.1717991473913118</v>
+        <v>0.1516380468435678</v>
       </c>
       <c r="Q13">
-        <v>250.9799284184872</v>
+        <v>6.224396241808334</v>
       </c>
       <c r="R13">
-        <v>250.9799284184872</v>
+        <v>37.34637745085</v>
       </c>
       <c r="S13">
-        <v>0.04603469249177049</v>
+        <v>0.001061518427604176</v>
       </c>
       <c r="T13">
-        <v>0.04603469249177049</v>
+        <v>0.001153492783780501</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H14">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I14">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J14">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.0509315489811</v>
+        <v>67.073376</v>
       </c>
       <c r="N14">
-        <v>67.0509315489811</v>
+        <v>134.146752</v>
       </c>
       <c r="O14">
-        <v>0.4016786965895207</v>
+        <v>0.3886152607163267</v>
       </c>
       <c r="P14">
-        <v>0.4016786965895207</v>
+        <v>0.3201976973989085</v>
       </c>
       <c r="Q14">
-        <v>496.3207117717459</v>
+        <v>2.233901145472</v>
       </c>
       <c r="R14">
-        <v>496.3207117717459</v>
+        <v>13.403406872832</v>
       </c>
       <c r="S14">
-        <v>0.09103505402875078</v>
+        <v>0.0003809730517213472</v>
       </c>
       <c r="T14">
-        <v>0.09103505402875078</v>
+        <v>0.0004139821359175438</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H15">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I15">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J15">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.0064932287969</v>
+        <v>4.219010666666667</v>
       </c>
       <c r="N15">
-        <v>4.0064932287969</v>
+        <v>12.657032</v>
       </c>
       <c r="O15">
-        <v>0.02400150066315274</v>
+        <v>0.02444445215030819</v>
       </c>
       <c r="P15">
-        <v>0.02400150066315274</v>
+        <v>0.03021133528677833</v>
       </c>
       <c r="Q15">
-        <v>29.65664346620663</v>
+        <v>0.1405155565902222</v>
       </c>
       <c r="R15">
-        <v>29.65664346620663</v>
+        <v>1.264640009312</v>
       </c>
       <c r="S15">
-        <v>0.00543961611156605</v>
+        <v>2.396374634437538E-05</v>
       </c>
       <c r="T15">
-        <v>0.00543961611156605</v>
+        <v>3.906009697302773E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H16">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I16">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J16">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.4501840563228</v>
+        <v>12.54988666666667</v>
       </c>
       <c r="N16">
-        <v>12.4501840563228</v>
+        <v>37.64966</v>
       </c>
       <c r="O16">
-        <v>0.07458470133841665</v>
+        <v>0.07271256897710082</v>
       </c>
       <c r="P16">
-        <v>0.07458470133841665</v>
+        <v>0.0898667635266472</v>
       </c>
       <c r="Q16">
-        <v>92.15806655884225</v>
+        <v>0.4179781587288888</v>
       </c>
       <c r="R16">
-        <v>92.15806655884225</v>
+        <v>3.76180342856</v>
       </c>
       <c r="S16">
-        <v>0.01690361568514943</v>
+        <v>7.12826594885733E-05</v>
       </c>
       <c r="T16">
-        <v>0.01690361568514943</v>
+        <v>0.0001161883268211318</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H17">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I17">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J17">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.1539764918563</v>
+        <v>12.18648933333333</v>
       </c>
       <c r="N17">
-        <v>12.1539764918563</v>
+        <v>36.559468</v>
       </c>
       <c r="O17">
-        <v>0.07281022534432931</v>
+        <v>0.07060708751994335</v>
       </c>
       <c r="P17">
-        <v>0.07281022534432931</v>
+        <v>0.08726456136432641</v>
       </c>
       <c r="Q17">
-        <v>89.96549524280029</v>
+        <v>0.4058750894097777</v>
       </c>
       <c r="R17">
-        <v>89.96549524280029</v>
+        <v>3.652875804688</v>
       </c>
       <c r="S17">
-        <v>0.01650145465603331</v>
+        <v>6.921858281130275E-05</v>
       </c>
       <c r="T17">
-        <v>0.01650145465603331</v>
+        <v>0.0001128239515679746</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>7.40214491142723</v>
+        <v>0.03330533333333333</v>
       </c>
       <c r="H18">
-        <v>7.40214491142723</v>
+        <v>0.099916</v>
       </c>
       <c r="I18">
-        <v>0.2266365002717094</v>
+        <v>0.0009803347686838319</v>
       </c>
       <c r="J18">
-        <v>0.2266365002717094</v>
+        <v>0.001292895418300891</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.5873164668638</v>
+        <v>44.80271133333334</v>
       </c>
       <c r="N18">
-        <v>42.5873164668638</v>
+        <v>134.408134</v>
       </c>
       <c r="O18">
-        <v>0.2551257286732689</v>
+        <v>0.2595816460111038</v>
       </c>
       <c r="P18">
-        <v>0.2551257286732689</v>
+        <v>0.3208215955797718</v>
       </c>
       <c r="Q18">
-        <v>315.2374878765369</v>
+        <v>1.492169235193778</v>
       </c>
       <c r="R18">
-        <v>315.2374878765369</v>
+        <v>13.429523116744</v>
       </c>
       <c r="S18">
-        <v>0.05782080227577938</v>
+        <v>0.0002544769128968637</v>
       </c>
       <c r="T18">
-        <v>0.05782080227577938</v>
+        <v>0.0004147887710170683</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03330533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.099916</v>
+      </c>
+      <c r="I19">
+        <v>0.0009803347686838319</v>
+      </c>
+      <c r="J19">
+        <v>0.001292895418300891</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>31.7643625</v>
+      </c>
+      <c r="N19">
+        <v>63.528725</v>
+      </c>
+      <c r="O19">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P19">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q19">
+        <v>1.057922681183333</v>
+      </c>
+      <c r="R19">
+        <v>6.347536087100001</v>
+      </c>
+      <c r="S19">
+        <v>0.0001804198154213696</v>
+      </c>
+      <c r="T19">
+        <v>0.0001960521360041447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H20">
+        <v>27.314064</v>
+      </c>
+      <c r="I20">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J20">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>67.073376</v>
+      </c>
+      <c r="N20">
+        <v>134.146752</v>
+      </c>
+      <c r="O20">
+        <v>0.3886152607163267</v>
+      </c>
+      <c r="P20">
+        <v>0.3201976973989085</v>
+      </c>
+      <c r="Q20">
+        <v>610.6821615866879</v>
+      </c>
+      <c r="R20">
+        <v>3664.092969520128</v>
+      </c>
+      <c r="S20">
+        <v>0.1041467064033006</v>
+      </c>
+      <c r="T20">
+        <v>0.1131704086963899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H21">
+        <v>27.314064</v>
+      </c>
+      <c r="I21">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J21">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N21">
+        <v>12.657032</v>
+      </c>
+      <c r="O21">
+        <v>0.02444445215030819</v>
+      </c>
+      <c r="P21">
+        <v>0.03021133528677833</v>
+      </c>
+      <c r="Q21">
+        <v>38.412775788672</v>
+      </c>
+      <c r="R21">
+        <v>345.714982098048</v>
+      </c>
+      <c r="S21">
+        <v>0.006550975833000071</v>
+      </c>
+      <c r="T21">
+        <v>0.0106778692958834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H22">
+        <v>27.314064</v>
+      </c>
+      <c r="I22">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J22">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.54988666666667</v>
+      </c>
+      <c r="N22">
+        <v>37.64966</v>
+      </c>
+      <c r="O22">
+        <v>0.07271256897710082</v>
+      </c>
+      <c r="P22">
+        <v>0.0898667635266472</v>
+      </c>
+      <c r="Q22">
+        <v>114.26280253536</v>
+      </c>
+      <c r="R22">
+        <v>1028.36522281824</v>
+      </c>
+      <c r="S22">
+        <v>0.01948655994396391</v>
+      </c>
+      <c r="T22">
+        <v>0.03176243439334351</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H23">
+        <v>27.314064</v>
+      </c>
+      <c r="I23">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J23">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>12.18648933333333</v>
+      </c>
+      <c r="N23">
+        <v>36.559468</v>
+      </c>
+      <c r="O23">
+        <v>0.07060708751994335</v>
+      </c>
+      <c r="P23">
+        <v>0.08726456136432641</v>
+      </c>
+      <c r="Q23">
+        <v>110.954183195328</v>
+      </c>
+      <c r="R23">
+        <v>998.5876487579518</v>
+      </c>
+      <c r="S23">
+        <v>0.01892230274327658</v>
+      </c>
+      <c r="T23">
+        <v>0.03084271421854915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H24">
+        <v>27.314064</v>
+      </c>
+      <c r="I24">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J24">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>44.80271133333334</v>
+      </c>
+      <c r="N24">
+        <v>134.408134</v>
+      </c>
+      <c r="O24">
+        <v>0.2595816460111038</v>
+      </c>
+      <c r="P24">
+        <v>0.3208215955797718</v>
+      </c>
+      <c r="Q24">
+        <v>407.9147082440641</v>
+      </c>
+      <c r="R24">
+        <v>3671.232374196576</v>
+      </c>
+      <c r="S24">
+        <v>0.06956642264889869</v>
+      </c>
+      <c r="T24">
+        <v>0.1133909187521673</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.104687999999999</v>
+      </c>
+      <c r="H25">
+        <v>27.314064</v>
+      </c>
+      <c r="I25">
+        <v>0.2679943814129406</v>
+      </c>
+      <c r="J25">
+        <v>0.3534391709113386</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.7643625</v>
+      </c>
+      <c r="N25">
+        <v>63.528725</v>
+      </c>
+      <c r="O25">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P25">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q25">
+        <v>289.2046100814</v>
+      </c>
+      <c r="R25">
+        <v>1735.2276604884</v>
+      </c>
+      <c r="S25">
+        <v>0.04932141384050077</v>
+      </c>
+      <c r="T25">
+        <v>0.05359482555500533</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.888947</v>
+      </c>
+      <c r="H26">
+        <v>15.777894</v>
+      </c>
+      <c r="I26">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J26">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>67.073376</v>
+      </c>
+      <c r="N26">
+        <v>134.146752</v>
+      </c>
+      <c r="O26">
+        <v>0.3886152607163267</v>
+      </c>
+      <c r="P26">
+        <v>0.3201976973989085</v>
+      </c>
+      <c r="Q26">
+        <v>529.1383083750719</v>
+      </c>
+      <c r="R26">
+        <v>2116.553233500288</v>
+      </c>
+      <c r="S26">
+        <v>0.0902400880777243</v>
+      </c>
+      <c r="T26">
+        <v>0.06537257554746587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.888947</v>
+      </c>
+      <c r="H27">
+        <v>15.777894</v>
+      </c>
+      <c r="I27">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J27">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N27">
+        <v>12.657032</v>
+      </c>
+      <c r="O27">
+        <v>0.02444445215030819</v>
+      </c>
+      <c r="P27">
+        <v>0.03021133528677833</v>
+      </c>
+      <c r="Q27">
+        <v>33.283551541768</v>
+      </c>
+      <c r="R27">
+        <v>199.701309250608</v>
+      </c>
+      <c r="S27">
+        <v>0.005676229777980137</v>
+      </c>
+      <c r="T27">
+        <v>0.006168041851857085</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.888947</v>
+      </c>
+      <c r="H28">
+        <v>15.777894</v>
+      </c>
+      <c r="I28">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J28">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>12.54988666666667</v>
+      </c>
+      <c r="N28">
+        <v>37.64966</v>
+      </c>
+      <c r="O28">
+        <v>0.07271256897710082</v>
+      </c>
+      <c r="P28">
+        <v>0.0898667635266472</v>
+      </c>
+      <c r="Q28">
+        <v>99.00539076934</v>
+      </c>
+      <c r="R28">
+        <v>594.0323446160399</v>
+      </c>
+      <c r="S28">
+        <v>0.0168845366925538</v>
+      </c>
+      <c r="T28">
+        <v>0.01834748293187452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="H19">
-        <v>7.40214491142723</v>
-      </c>
-      <c r="I19">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="J19">
-        <v>0.2266365002717094</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>28.6778785375313</v>
-      </c>
-      <c r="N19">
-        <v>28.6778785375313</v>
-      </c>
-      <c r="O19">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="P19">
-        <v>0.1717991473913118</v>
-      </c>
-      <c r="Q19">
-        <v>212.2778126871155</v>
-      </c>
-      <c r="R19">
-        <v>212.2778126871155</v>
-      </c>
-      <c r="S19">
-        <v>0.03893595751443048</v>
-      </c>
-      <c r="T19">
-        <v>0.03893595751443048</v>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.888947</v>
+      </c>
+      <c r="H29">
+        <v>15.777894</v>
+      </c>
+      <c r="I29">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J29">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>12.18648933333333</v>
+      </c>
+      <c r="N29">
+        <v>36.559468</v>
+      </c>
+      <c r="O29">
+        <v>0.07060708751994335</v>
+      </c>
+      <c r="P29">
+        <v>0.08726456136432641</v>
+      </c>
+      <c r="Q29">
+        <v>96.138568466732</v>
+      </c>
+      <c r="R29">
+        <v>576.831410800392</v>
+      </c>
+      <c r="S29">
+        <v>0.01639562426078341</v>
+      </c>
+      <c r="T29">
+        <v>0.01781620910065091</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.888947</v>
+      </c>
+      <c r="H30">
+        <v>15.777894</v>
+      </c>
+      <c r="I30">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J30">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>44.80271133333334</v>
+      </c>
+      <c r="N30">
+        <v>134.408134</v>
+      </c>
+      <c r="O30">
+        <v>0.2595816460111038</v>
+      </c>
+      <c r="P30">
+        <v>0.3208215955797718</v>
+      </c>
+      <c r="Q30">
+        <v>353.4462151649661</v>
+      </c>
+      <c r="R30">
+        <v>2120.677290989796</v>
+      </c>
+      <c r="S30">
+        <v>0.06027727927159738</v>
+      </c>
+      <c r="T30">
+        <v>0.06549995257513888</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.888947</v>
+      </c>
+      <c r="H31">
+        <v>15.777894</v>
+      </c>
+      <c r="I31">
+        <v>0.2322093268066379</v>
+      </c>
+      <c r="J31">
+        <v>0.2041631656895504</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>31.7643625</v>
+      </c>
+      <c r="N31">
+        <v>63.528725</v>
+      </c>
+      <c r="O31">
+        <v>0.1840389846252172</v>
+      </c>
+      <c r="P31">
+        <v>0.1516380468435678</v>
+      </c>
+      <c r="Q31">
+        <v>250.5873722512875</v>
+      </c>
+      <c r="R31">
+        <v>1002.34948900515</v>
+      </c>
+      <c r="S31">
+        <v>0.04273556872599886</v>
+      </c>
+      <c r="T31">
+        <v>0.03095890368256314</v>
       </c>
     </row>
   </sheetData>
